--- a/materials/slides/list.xlsx
+++ b/materials/slides/list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>软件测试概述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,26 @@
   </si>
   <si>
     <t>测试过程管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试停止依据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMM模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试其他概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归，测试报告，测试计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误及黑盒测试总结</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,13 +465,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
@@ -551,89 +575,109 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>5.0999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
+        <v>5.3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
         <v>5.4</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
         <v>5.5</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
         <v>7</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
         <v>8</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22">
         <v>10</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25">
         <v>11.3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/materials/slides/list.xlsx
+++ b/materials/slides/list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>软件测试概述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,10 @@
   </si>
   <si>
     <t>错误及黑盒测试总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Junit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -477,7 +481,7 @@
     <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1</v>
       </c>
@@ -485,7 +489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2.1</v>
       </c>
@@ -493,7 +497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2.2000000000000002</v>
       </c>
@@ -501,7 +505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2.2999999999999998</v>
       </c>
@@ -509,7 +513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2.4</v>
       </c>
@@ -517,7 +521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3.1</v>
       </c>
@@ -525,7 +529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3.2</v>
       </c>
@@ -533,7 +537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3.3</v>
       </c>
@@ -541,7 +545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3.4</v>
       </c>
@@ -549,7 +553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3.5</v>
       </c>
@@ -557,7 +561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3.6</v>
       </c>
@@ -565,7 +569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3.7</v>
       </c>
@@ -573,7 +577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3.8</v>
       </c>
@@ -581,103 +585,165 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>5.0999999999999996</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5.2</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>5.3</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5.4</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5.5</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
+        <v>7.2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21">
         <v>8</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21">
+      <c r="E21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22">
         <v>9</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22">
+      <c r="E22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23">
         <v>10</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23">
+      <c r="E23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24">
         <v>11.1</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24">
+      <c r="E24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25">
         <v>11.2</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25">
+      <c r="E25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26">
         <v>11.3</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>21</v>
+      </c>
+      <c r="E26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E29">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/materials/slides/list.xlsx
+++ b/materials/slides/list.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="进度" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>软件测试概述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,121 @@
   </si>
   <si>
     <t>Junit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件测试核心概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到缺陷定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章+搭建环境，留作业5个缺陷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价类+边界值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价类+边界值+决策表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策表+正交表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正交表+场景+状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因果图+总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白盒1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白盒2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白盒3习题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元1-两个工具junit5+jenkins，作业excel参数化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元2-测试需求，测试流程，讲解作业excel参数化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成，POSTman使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发模型+测试模型，SelenimIDE的操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试过程管理，其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因果图，场景法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态迁移图+总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元测试，Junit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.1,11.2,11.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试过程管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1,2.2</t>
+  </si>
+  <si>
+    <t>2.3,2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白盒测试实践</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白盒实践</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,123 +584,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2.1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2.2000000000000002</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2.2999999999999998</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2.4</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3.1</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3.2</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3.3</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3.4</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3.5</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3.6</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3.7</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3.8</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E13">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>5.0999999999999996</v>
       </c>
@@ -593,10 +868,19 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5.2</v>
       </c>
@@ -604,10 +888,13 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>5.3</v>
       </c>
@@ -615,135 +902,101 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5.4</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5.5</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
         <v>7.1</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="E19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
         <v>7.2</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="E20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22">
         <v>8</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="E21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23">
         <v>9</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="E22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24">
         <v>10</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25">
         <v>11.1</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="E24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26">
         <v>11.2</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="E25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27">
         <v>11.3</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>21</v>
-      </c>
-      <c r="E26">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E27">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E28">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E29">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/materials/slides/list.xlsx
+++ b/materials/slides/list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="进度" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="进度2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t>软件测试概述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +238,86 @@
   </si>
   <si>
     <t>白盒实践</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1,2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3,等价类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界值 +正交表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策表+因果图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景法+状态迁移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白盒3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结+ 实践（黑盒用例设计实践）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.1,11.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业5  状态迁移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业9（大作业）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业1 核心概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业2  等价类和边界值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业3  决策表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业4  场景法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业6  白盒作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业7  Junit作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业8  测试过程管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +325,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,16 +340,51 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -277,12 +392,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -293,12 +434,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -340,7 +484,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,7 +519,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -586,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1008,14 +1152,197 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="41" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
